--- a/raw/Feature_lists.xlsx
+++ b/raw/Feature_lists.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -29,58 +29,58 @@
     <t>year</t>
   </si>
   <si>
+    <t>SAILS</t>
+  </si>
+  <si>
+    <t>WALS</t>
+  </si>
+  <si>
+    <t>http://wals.info</t>
+  </si>
+  <si>
+    <t>Matthew Dryer, Martin Haspelmath, David Gil, Bernard Comrie</t>
+  </si>
+  <si>
+    <t>Grambank</t>
+  </si>
+  <si>
+    <t>http://grambank.clld.org/</t>
+  </si>
+  <si>
+    <t>Harald Hammarström, Hedvig Skirgård, et al.</t>
+  </si>
+  <si>
+    <t>SSWL</t>
+  </si>
+  <si>
+    <t>http://sswl.railsplayground.net</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>https://huntergatherer.la.utexas.edu/</t>
+  </si>
+  <si>
+    <t>Claire Bowern, Patience Epps, Jane Hill, Keth Hunley</t>
+  </si>
+  <si>
+    <t>DiACL</t>
+  </si>
+  <si>
+    <t>https://diacl.ht.lu.se/</t>
+  </si>
+  <si>
+    <t>Ger Carling et al.</t>
+  </si>
+  <si>
     <t>APiCS</t>
   </si>
   <si>
-    <t>http://apics-online.info</t>
-  </si>
-  <si>
-    <t>Susanne Maria Michaelis, Philippe Maurer, Martin Haspelmath, Magnus Huber</t>
-  </si>
-  <si>
-    <t>SAILS</t>
-  </si>
-  <si>
-    <t>WALS</t>
-  </si>
-  <si>
-    <t>http://wals.info</t>
-  </si>
-  <si>
-    <t>Mattjhew Dryer, Martin Haspelmath, David Gil, Bernard Comrie</t>
-  </si>
-  <si>
-    <t>Grambank</t>
-  </si>
-  <si>
-    <t>http://grambank.clld.org/</t>
-  </si>
-  <si>
-    <t>Harald Hammarström, Hedvig Skirgård, et al.</t>
-  </si>
-  <si>
-    <t>SSWL</t>
-  </si>
-  <si>
-    <t>http://sswl.railsplayground.net</t>
-  </si>
-  <si>
-    <t>HG</t>
-  </si>
-  <si>
-    <t>https://huntergatherer.la.utexas.edu/</t>
-  </si>
-  <si>
-    <t>Claire Bowern, Patience Epps, Jane Hill, Keth Hunley</t>
-  </si>
-  <si>
-    <t>DiACL</t>
-  </si>
-  <si>
-    <t>https://diacl.ht.lu.se/</t>
-  </si>
-  <si>
-    <t>Ger Carling et al.</t>
+    <t>https://apics-online.info</t>
+  </si>
+  <si>
+    <t>Susanne Michaelis, Philippe Maurer, Martin Haspelmath, Magnus Huber</t>
   </si>
 </sst>
 </file>
@@ -97,17 +97,17 @@
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,141 +170,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0"/>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10">
-        <v>335</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="9">
         <v>9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>192</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s" s="9">
         <v>12</v>
       </c>
       <c r="E4" s="10">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F4" s="11">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s" s="8">
         <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="10">
-        <v>195</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s" s="9">
         <v>17</v>
+      </c>
+      <c r="E6" s="10">
+        <v>304</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="E7" s="10">
-        <v>304</v>
-      </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s" s="9">
         <v>23</v>
       </c>
       <c r="F8" s="11">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
